--- a/script2.xlsx
+++ b/script2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UID</t>
   </si>
@@ -41,54 +41,6 @@
   </si>
   <si>
     <t>Reagent</t>
-  </si>
-  <si>
-    <t>Transcription unit 1 variant 1</t>
-  </si>
-  <si>
-    <t>6RES_AQ_BP</t>
-  </si>
-  <si>
-    <t>Reagents</t>
-  </si>
-  <si>
-    <t>384-Well Polypropylene Source Microplate</t>
-  </si>
-  <si>
-    <t>Deionised water</t>
-  </si>
-  <si>
-    <t>VOLUME PLACEHOLDER</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Transcription unit 2 variant 1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>10x T4 DNA ligase buffer</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>10x T4 DNA ligase</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>BsaI-HF (NEB)</t>
-  </si>
-  <si>
-    <t>B1</t>
   </si>
 </sst>
 </file>
@@ -420,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,238 +407,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
